--- a/Original Excel Files/DE-DJ.xlsx
+++ b/Original Excel Files/DE-DJ.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1B7BF8-D738-4ABE-AE1F-2797F3188FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,8 +196,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -271,7 +272,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -281,6 +290,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -329,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,9 +374,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,6 +426,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -572,16 +618,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:G35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A9:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -598,7 +644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,270 +663,293 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1968</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3" t="s">
+      <c r="D13" s="9"/>
+      <c r="G13" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F14" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G14" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>8</v>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A15" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1968</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1988</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A17" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1988</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1989</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1957</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1996</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1989</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1996</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1957</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1965</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1953</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1990</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1965</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1953</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="5">
-        <v>1990</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" t="s">
         <v>57</v>
       </c>
     </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G35">
+    <sortCondition ref="A1:A35"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Original Excel Files/DE-DJ.xlsx
+++ b/Original Excel Files/DE-DJ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1B7BF8-D738-4ABE-AE1F-2797F3188FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515BC77A-3677-4B76-BAA5-6D72B5B4C2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>DE5 .S56 1958</t>
   </si>
   <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
     <t>1958 P</t>
   </si>
   <si>
@@ -46,9 +40,6 @@
     <t>DE59 .G76</t>
   </si>
   <si>
-    <t>National Geographic Society</t>
-  </si>
-  <si>
     <t>1968 O</t>
   </si>
   <si>
@@ -61,51 +52,30 @@
     <t>DE7 .P5</t>
   </si>
   <si>
-    <t>Dryden, John ed.</t>
-  </si>
-  <si>
     <t>Plutarch: The Lives of the Noble Grecians and Romans</t>
   </si>
   <si>
     <t>DF229 .T5 H6 1989</t>
   </si>
   <si>
-    <t>Grene, David intro.</t>
-  </si>
-  <si>
     <t>The Peloponnesian War: Thucydides</t>
   </si>
   <si>
     <t>DF229 .T55 C7 1996</t>
   </si>
   <si>
-    <t>Strassler, Robert B. ed.</t>
-  </si>
-  <si>
     <t>The Landmark Thucydides: a comprehensive guide to the Peloponnesian War</t>
   </si>
   <si>
     <t>DF77 .B73</t>
   </si>
   <si>
-    <t>Bowra, C.M.</t>
-  </si>
-  <si>
     <t>The Greek Experience</t>
   </si>
   <si>
     <t>DF727 .R613 1965</t>
   </si>
   <si>
-    <t>Roux</t>
-  </si>
-  <si>
-    <t>Jeanne</t>
-  </si>
-  <si>
-    <t>Georges</t>
-  </si>
-  <si>
     <t>1965 H</t>
   </si>
   <si>
@@ -115,9 +85,6 @@
     <t>DG467 .M3</t>
   </si>
   <si>
-    <t>Denis M.</t>
-  </si>
-  <si>
     <t>1959 H</t>
   </si>
   <si>
@@ -127,48 +94,30 @@
     <t>DG77 .B32</t>
   </si>
   <si>
-    <t>Balsdon, J. P. B. D. ed.</t>
-  </si>
-  <si>
     <t>Roman Civilization</t>
   </si>
   <si>
     <t>DG77 .B34</t>
   </si>
   <si>
-    <t>Barrow, R. H.</t>
-  </si>
-  <si>
     <t>The Romans</t>
   </si>
   <si>
     <t>DG901 .L3</t>
   </si>
   <si>
-    <t>Lawrence, D. H.</t>
-  </si>
-  <si>
     <t>Twilight in Italy</t>
   </si>
   <si>
     <t>DE71.G7 A5</t>
   </si>
   <si>
-    <t>Grant, Michael</t>
-  </si>
-  <si>
     <t>The Ancient Mediterranean</t>
   </si>
   <si>
     <t>DF214 .G64</t>
   </si>
   <si>
-    <t>Trimboli</t>
-  </si>
-  <si>
-    <t>Santi</t>
-  </si>
-  <si>
     <t>???? O</t>
   </si>
   <si>
@@ -178,19 +127,19 @@
     <t>DJK50 .P68 1990</t>
   </si>
   <si>
-    <t>Havel</t>
-  </si>
-  <si>
-    <t>Vaclav</t>
-  </si>
-  <si>
-    <t>et al.</t>
-  </si>
-  <si>
     <t>1990 H</t>
   </si>
   <si>
     <t>The Power of the Powerless: Citizens Against the State in Central-Eastern Europe</t>
+  </si>
+  <si>
+    <t>Yr.</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -259,25 +208,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -619,313 +559,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A9:G32"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:G24"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="9" spans="1:7">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1968</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1968</v>
-      </c>
-      <c r="G11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="B10" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1996</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="G13" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1988</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3" t="s">
+      <c r="B13" s="3">
+        <v>1957</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="5">
-        <v>1989</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1996</v>
-      </c>
-      <c r="G18" s="3" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A19" t="s">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1965</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B16" s="7">
+        <v>1953</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F19" t="s">
+      <c r="B17" s="7">
+        <v>1990</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1957</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="7" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="7" t="s">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="10">
-        <v>1965</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="C18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="10">
-        <v>1953</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="10">
-        <v>1990</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A25" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G35">
-    <sortCondition ref="A1:A35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
+    <sortCondition ref="A1:A28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
